--- a/medicine/Psychotrope/Gong_fu_cha/Gong_fu_cha.xlsx
+++ b/medicine/Psychotrope/Gong_fu_cha/Gong_fu_cha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gong fu cha (en chinois : 工夫茶 ; pinyin : gōngfū chá ; litt. « art du thé ») est une méthode chinoise de préparation du thé, pratiquée particulièrement dans la région du Guangdong, mais également pratiquée dans l'ensemble des régions de culture Han et d'autres cultures chinoises.
 La préparation n'est pas une cérémonie mais un art : gongfu 工夫 (parfois transcrit kung fu d'après la méthode Wade-Giles) désigne la technique de préparation et n'a que peu de points communs avec la cérémonie du thé japonaise, le chanoyu 茶の湯. La notion de sacré et de communion sociale pouvant exister dans le gong fu cha, mais de manière concomitante, alors que ces principes sont fondamentaux dans le chanoyu, cérémonie zen (du sanskrit dhyāna, « méditation » via le chinois 禅, chán). Le gong fu cha est simplement un art convivial permettant d'obtenir un bon thé, de même qu'en Occident les œnologues utilisent certains verres et un vin préparé par une ventilation suffisante, à la température voulue, pour déguster les grands crus. Cette méthode permet également de mettre en avant les parfums du thé, ainsi que le thé lui-même par un service raffiné (théière en terre de Yixing, tasse en porcelaine fine…).
@@ -512,7 +524,9 @@
           <t>Ustensiles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le service complet, (茶具, chájù), est difficile à obtenir en Occident. On le trouve généralement dans les boutiques des quartiers chinois (comme les quartiers chinois de Belleville, d'Arts &amp; Métiers ou du XIIIe arrondissement à Paris), dans les boutiques spécialisées dans le thé, dans les épiceries fines, ou dans certaines brûleries. On peut également les commander directement en Chine par internet.
 </t>
@@ -543,7 +557,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Remplir la théière d'eau chaude, faire attention de bien remettre son couvercle à chaque étape.
 Vider la théière dans les tasses, dans les tasses à sentir, dans la cruche et en aspergeant bien la plateforme de préparation. L'objectif de cette étape est de faire en sorte que les accessoires sont tous imprégnés de chaleur, la température du thé se conserve alors mieux.
@@ -585,7 +601,9 @@
           <t>Temps d'infusions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de règle pour les temps entre chaque infusion, cela dépend du goût de chacun (plus ou moins fort selon le temps d'infusion), du type de thé qui infusera plus ou moins vite et sera plus ou moins fort. La couleur du thé donnera rapidement une indication quant à la force de l'infusion. On retiendra qu'en règle générale, trop infuser donne un goût trop fort, voire amer, et que les premières infusions doivent être plus courtes que les dernières car les feuilles de thé mettront plus de temps à infuser.
 Le même thé peut être infusé plus d'une dizaine de fois, l'infusion, dont le temps va varier, donnant alors des senteurs différentes. En règle générale, l'on sait que le thé est infusé quand la goutte qui perle au bec de l'宜興壺/宜兴壶 Yíxìnghú est rentrée entièrement — le thé semblant alors se rétracter. Les premières infusions peuvent ne durer que quelques secondes, les dernières plus d'une heure pour certains 黑茶 hēi chá.
